--- a/SchedulingData/dynamic13/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_6.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.22</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.66</v>
+        <v>42.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.024</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>52.94</v>
+        <v>142.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.876</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>142.8</v>
       </c>
       <c r="D5" t="n">
-        <v>53.72</v>
+        <v>213.1</v>
       </c>
       <c r="E5" t="n">
-        <v>26.828</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71.66</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>113.46</v>
+        <v>57.16</v>
       </c>
       <c r="E6" t="n">
-        <v>22.984</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="7">
@@ -561,131 +561,131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>42.3</v>
       </c>
       <c r="D7" t="n">
-        <v>57.6</v>
+        <v>113.46</v>
       </c>
       <c r="E7" t="n">
-        <v>25.92</v>
+        <v>23.424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>51.56</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>27.504</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.56</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>108.66</v>
+        <v>38.72</v>
       </c>
       <c r="E9" t="n">
-        <v>23.904</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53.72</v>
+        <v>38.72</v>
       </c>
       <c r="D10" t="n">
-        <v>122.68</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>24.012</v>
+        <v>23.968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113.46</v>
+        <v>213.1</v>
       </c>
       <c r="D11" t="n">
-        <v>184.62</v>
+        <v>282.64</v>
       </c>
       <c r="E11" t="n">
-        <v>19.448</v>
+        <v>16.176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.6</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>117.34</v>
+        <v>166.8</v>
       </c>
       <c r="E12" t="n">
-        <v>22.056</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.94</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>93.54000000000001</v>
+        <v>148.54</v>
       </c>
       <c r="E13" t="n">
-        <v>24.436</v>
+        <v>21.056</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>184.62</v>
+        <v>148.54</v>
       </c>
       <c r="D14" t="n">
-        <v>232.62</v>
+        <v>205.98</v>
       </c>
       <c r="E14" t="n">
-        <v>15.288</v>
+        <v>17.932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93.54000000000001</v>
+        <v>57.16</v>
       </c>
       <c r="D15" t="n">
-        <v>156.6</v>
+        <v>117.06</v>
       </c>
       <c r="E15" t="n">
-        <v>20.74</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>156.6</v>
+        <v>117.06</v>
       </c>
       <c r="D16" t="n">
-        <v>206.98</v>
+        <v>186.76</v>
       </c>
       <c r="E16" t="n">
-        <v>17.332</v>
+        <v>19.744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>122.68</v>
+        <v>113.46</v>
       </c>
       <c r="D17" t="n">
-        <v>172.48</v>
+        <v>172.94</v>
       </c>
       <c r="E17" t="n">
-        <v>20.172</v>
+        <v>20.096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>206.98</v>
+        <v>166.8</v>
       </c>
       <c r="D18" t="n">
-        <v>261.68</v>
+        <v>229.46</v>
       </c>
       <c r="E18" t="n">
-        <v>13.972</v>
+        <v>19.464</v>
       </c>
     </row>
     <row r="19">
@@ -789,112 +789,112 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>172.48</v>
+        <v>186.76</v>
       </c>
       <c r="D19" t="n">
-        <v>218.54</v>
+        <v>234.06</v>
       </c>
       <c r="E19" t="n">
-        <v>16.696</v>
+        <v>16.144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108.66</v>
+        <v>234.06</v>
       </c>
       <c r="D20" t="n">
-        <v>183.66</v>
+        <v>292.12</v>
       </c>
       <c r="E20" t="n">
-        <v>19.044</v>
+        <v>12.448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44.8</v>
+        <v>292.12</v>
       </c>
       <c r="D21" t="n">
-        <v>113.98</v>
+        <v>338.18</v>
       </c>
       <c r="E21" t="n">
-        <v>22.892</v>
+        <v>8.972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>113.98</v>
+        <v>172.94</v>
       </c>
       <c r="D22" t="n">
-        <v>162.2</v>
+        <v>246.64</v>
       </c>
       <c r="E22" t="n">
-        <v>19.2</v>
+        <v>16.316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>183.66</v>
+        <v>338.18</v>
       </c>
       <c r="D23" t="n">
-        <v>266.78</v>
+        <v>391.06</v>
       </c>
       <c r="E23" t="n">
-        <v>14.832</v>
+        <v>5.804</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>117.34</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>155.1</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>18.92</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>155.1</v>
+        <v>246.64</v>
       </c>
       <c r="D25" t="n">
-        <v>220.2</v>
+        <v>322.7</v>
       </c>
       <c r="E25" t="n">
-        <v>15.54</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>162.2</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>202.1</v>
+        <v>120.92</v>
       </c>
       <c r="E26" t="n">
-        <v>16.34</v>
+        <v>21.708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>218.54</v>
+        <v>205.98</v>
       </c>
       <c r="D27" t="n">
-        <v>264.38</v>
+        <v>267.28</v>
       </c>
       <c r="E27" t="n">
-        <v>13.732</v>
+        <v>14.412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>220.2</v>
+        <v>120.92</v>
       </c>
       <c r="D28" t="n">
-        <v>271.9</v>
+        <v>171.3</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>261.68</v>
+        <v>282.64</v>
       </c>
       <c r="D29" t="n">
-        <v>319.66</v>
+        <v>347.54</v>
       </c>
       <c r="E29" t="n">
-        <v>10.804</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>266.78</v>
+        <v>267.28</v>
       </c>
       <c r="D30" t="n">
-        <v>325.78</v>
+        <v>356.82</v>
       </c>
       <c r="E30" t="n">
-        <v>12.032</v>
+        <v>10.548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>264.38</v>
+        <v>347.54</v>
       </c>
       <c r="D31" t="n">
-        <v>318.76</v>
+        <v>402.14</v>
       </c>
       <c r="E31" t="n">
-        <v>10.924</v>
+        <v>8.456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>319.66</v>
+        <v>229.46</v>
       </c>
       <c r="D32" t="n">
-        <v>410.66</v>
+        <v>273.66</v>
       </c>
       <c r="E32" t="n">
-        <v>6.784</v>
+        <v>16.664</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>202.1</v>
+        <v>322.7</v>
       </c>
       <c r="D33" t="n">
-        <v>271.84</v>
+        <v>389.1</v>
       </c>
       <c r="E33" t="n">
-        <v>12.476</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>271.84</v>
+        <v>273.66</v>
       </c>
       <c r="D34" t="n">
-        <v>320.2</v>
+        <v>326.92</v>
       </c>
       <c r="E34" t="n">
-        <v>8.779999999999999</v>
+        <v>12.968</v>
       </c>
     </row>
     <row r="35">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>271.9</v>
+        <v>389.1</v>
       </c>
       <c r="D35" t="n">
-        <v>342.02</v>
+        <v>441.18</v>
       </c>
       <c r="E35" t="n">
-        <v>9.087999999999999</v>
+        <v>5.732</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,51 +1116,51 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>320.2</v>
+        <v>356.82</v>
       </c>
       <c r="D36" t="n">
-        <v>358.5</v>
+        <v>395.22</v>
       </c>
       <c r="E36" t="n">
-        <v>6.58</v>
+        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>342.02</v>
+        <v>171.3</v>
       </c>
       <c r="D37" t="n">
-        <v>396.82</v>
+        <v>244.52</v>
       </c>
       <c r="E37" t="n">
-        <v>6.208</v>
+        <v>14.608</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>232.62</v>
+        <v>391.06</v>
       </c>
       <c r="D38" t="n">
-        <v>294.5</v>
+        <v>450.04</v>
       </c>
       <c r="E38" t="n">
-        <v>12.22</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>358.5</v>
+        <v>326.92</v>
       </c>
       <c r="D39" t="n">
-        <v>414.96</v>
+        <v>377.66</v>
       </c>
       <c r="E39" t="n">
-        <v>3.044</v>
+        <v>10.004</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>396.82</v>
+        <v>244.52</v>
       </c>
       <c r="D40" t="n">
-        <v>436.72</v>
+        <v>295.88</v>
       </c>
       <c r="E40" t="n">
-        <v>3.348</v>
+        <v>12.112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>294.5</v>
+        <v>295.88</v>
       </c>
       <c r="D41" t="n">
-        <v>360.6</v>
+        <v>345.24</v>
       </c>
       <c r="E41" t="n">
-        <v>8.699999999999999</v>
+        <v>9.295999999999999</v>
       </c>
     </row>
   </sheetData>
